--- a/encoder-test.xlsx
+++ b/encoder-test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Distance (feet)</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>R ticks/cm =</t>
-  </si>
-  <si>
-    <t>R = </t>
   </si>
 </sst>
 </file>
@@ -80,9 +77,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -103,12 +101,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
@@ -117,11 +117,18 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -300,7 +307,7 @@
     <indexedColors>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00DC2300"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
@@ -343,10 +350,10 @@
       <rgbColor rgb="0099CC00"/>
       <rgbColor rgb="00FFCC00"/>
       <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF420E"/>
+      <rgbColor rgb="00FF6600"/>
       <rgbColor rgb="00666699"/>
       <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00004586"/>
+      <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
       <rgbColor rgb="00333300"/>
@@ -374,7 +381,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Left wheel ticks vs distance</a:t>
             </a:r>
           </a:p>
@@ -401,14 +408,15 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -428,9 +436,9 @@
                 <c:pt idx="5">
                   <c:v>53.97</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$7</c:f>
@@ -459,11 +467,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75189398"/>
-        <c:axId val="83418835"/>
+        <c:axId val="26042675"/>
+        <c:axId val="37624460"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75189398"/>
+        <c:axId val="26042675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +486,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Distance (feet)</a:t>
                 </a:r>
               </a:p>
@@ -489,8 +497,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83418835"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="37624460"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -500,7 +508,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83418835"/>
+        <c:axId val="37624460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +523,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Left wheel ticks (count)</a:t>
                 </a:r>
               </a:p>
@@ -535,8 +543,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75189398"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="26042675"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -578,7 +586,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Right wheel ticks vs distance</a:t>
             </a:r>
           </a:p>
@@ -605,14 +613,15 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="dc2300"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -632,9 +641,9 @@
                 <c:pt idx="5">
                   <c:v>53.97</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$7</c:f>
@@ -663,11 +672,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73695510"/>
-        <c:axId val="79146656"/>
+        <c:axId val="35045514"/>
+        <c:axId val="12570089"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73695510"/>
+        <c:axId val="35045514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +691,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Distance (feet)</a:t>
                 </a:r>
               </a:p>
@@ -693,8 +702,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79146656"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="12570089"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -704,7 +713,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79146656"/>
+        <c:axId val="12570089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +728,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Right wheel ticks (count)</a:t>
                 </a:r>
               </a:p>
@@ -739,8 +748,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73695510"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="35045514"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -772,15 +781,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:colOff>172800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -788,8 +797,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="983160" y="1118880"/>
-        <a:ext cx="8456040" cy="5547600"/>
+        <a:off x="1015200" y="1164960"/>
+        <a:ext cx="8495640" cy="5867280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -802,15 +811,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:colOff>32760</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:colOff>152640</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -818,8 +827,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="952920" y="6762240"/>
-        <a:ext cx="8466120" cy="5585400"/>
+        <a:off x="984960" y="7128360"/>
+        <a:ext cx="8505720" cy="5914080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -840,26 +849,26 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+      <selection activeCell="N50" activeCellId="0" pane="topLeft" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.07058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4627450980392"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.13333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.13333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.11764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.556862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>325.208652125943</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J6" s="25" t="n">
         <f aca="false">J2/G6</f>
@@ -1101,17 +1110,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1126,17 +1135,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
